--- a/Module.Frontend.TPM/Templates/TIPreTemplate.xlsx
+++ b/Module.Frontend.TPM/Templates/TIPreTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFS\TPM\Development\Phase1\Source\Module.Frontend.TPM\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey Filyushkin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D8AD60-9543-4D7E-AF82-FFDBB757295E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17FF85A-9D80-4524-8B7A-65BE2FF935D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5820" yWindow="3225" windowWidth="21330" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,10 +133,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,57 +421,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="D2" t="e">
@@ -477,199 +479,199 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
@@ -692,411 +694,411 @@
       <selection sqref="A1:B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1104,6 +1106,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058962C2B6D4B484B8B624D3722DA41C8" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2bd85fbbf50b8d6afd904a18f397fa6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="13f900c0-3409-4945-9ad3-55cdae6b8bba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aad3a974b614e743e39bf61b10545a4a" ns2:_="">
     <xsd:import namespace="13f900c0-3409-4945-9ad3-55cdae6b8bba"/>
@@ -1261,22 +1278,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086A2F7C-A13E-43BD-9624-07D5462F4ECF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F722A3E3-938D-49F2-8194-B5763F7F7CE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5B9E20F-AE74-4E9A-B4A7-60AC6BB2E569}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1292,21 +1311,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F722A3E3-938D-49F2-8194-B5763F7F7CE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086A2F7C-A13E-43BD-9624-07D5462F4ECF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>